--- a/20202s1tos8.xlsx
+++ b/20202s1tos8.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean-\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B18E277-F891-49E2-98C1-418A825738D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7C9C7-FB7D-45DD-9467-C1C1FE39B22A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{049D9015-F5EA-4E9A-828F-03969A55E290}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{049D9015-F5EA-4E9A-828F-03969A55E290}"/>
   </bookViews>
   <sheets>
     <sheet name="20202s1" sheetId="1" r:id="rId1"/>
     <sheet name="20202s2" sheetId="2" r:id="rId2"/>
-    <sheet name="20202s3" sheetId="3" r:id="rId3"/>
+    <sheet name="20202s4" sheetId="3" r:id="rId3"/>
     <sheet name="20202s5" sheetId="4" r:id="rId4"/>
     <sheet name="20202s6" sheetId="5" r:id="rId5"/>
     <sheet name="20202s7" sheetId="6" r:id="rId6"/>
@@ -5999,8 +5999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B2CBDA-1331-45ED-8318-C56D306CB453}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11403,7 +11403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED0683A-7769-4999-BD4D-E666C91CC329}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
